--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value169.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value169.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.538395884460845</v>
+        <v>0.7825431227684021</v>
       </c>
       <c r="B1">
-        <v>1.602454404966186</v>
+        <v>6.833194732666016</v>
       </c>
       <c r="C1">
-        <v>1.615169305318898</v>
+        <v>3.201865434646606</v>
       </c>
       <c r="D1">
-        <v>2.071750896503056</v>
+        <v>2.06935715675354</v>
       </c>
       <c r="E1">
-        <v>2.276687378691681</v>
+        <v>1.847473382949829</v>
       </c>
     </row>
   </sheetData>
